--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fgf2-Gpc4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fgf2-Gpc4.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.747119</v>
+        <v>0.456404</v>
       </c>
       <c r="H2">
-        <v>2.241357</v>
+        <v>1.369212</v>
       </c>
       <c r="I2">
-        <v>0.03096954854571248</v>
+        <v>0.01914960767004715</v>
       </c>
       <c r="J2">
-        <v>0.03096954854571248</v>
+        <v>0.01914960767004715</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>6.992380999999999</v>
+        <v>6.699658666666667</v>
       </c>
       <c r="N2">
-        <v>20.977143</v>
+        <v>20.098976</v>
       </c>
       <c r="O2">
-        <v>0.1454502834669897</v>
+        <v>0.1402150605386345</v>
       </c>
       <c r="P2">
-        <v>0.1454502834669897</v>
+        <v>0.1402150605386345</v>
       </c>
       <c r="Q2">
-        <v>5.224140700338999</v>
+        <v>3.057751014101334</v>
       </c>
       <c r="R2">
-        <v>47.017266303051</v>
+        <v>27.519759126912</v>
       </c>
       <c r="S2">
-        <v>0.004504529614818578</v>
+        <v>0.002685063398746761</v>
       </c>
       <c r="T2">
-        <v>0.004504529614818578</v>
+        <v>0.002685063398746761</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.747119</v>
+        <v>0.456404</v>
       </c>
       <c r="H3">
-        <v>2.241357</v>
+        <v>1.369212</v>
       </c>
       <c r="I3">
-        <v>0.03096954854571248</v>
+        <v>0.01914960767004715</v>
       </c>
       <c r="J3">
-        <v>0.03096954854571248</v>
+        <v>0.01914960767004715</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>92.50398</v>
       </c>
       <c r="O3">
-        <v>0.641399551541635</v>
+        <v>0.6453289538613627</v>
       </c>
       <c r="P3">
-        <v>0.641399551541635</v>
+        <v>0.6453289538613627</v>
       </c>
       <c r="Q3">
-        <v>23.03716034454</v>
+        <v>14.07306216264</v>
       </c>
       <c r="R3">
-        <v>207.33444310086</v>
+        <v>126.65755946376</v>
       </c>
       <c r="S3">
-        <v>0.01986385454866688</v>
+        <v>0.01235779628456706</v>
       </c>
       <c r="T3">
-        <v>0.01986385454866688</v>
+        <v>0.01235779628456706</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.747119</v>
+        <v>0.456404</v>
       </c>
       <c r="H4">
-        <v>2.241357</v>
+        <v>1.369212</v>
       </c>
       <c r="I4">
-        <v>0.03096954854571248</v>
+        <v>0.01914960767004715</v>
       </c>
       <c r="J4">
-        <v>0.03096954854571248</v>
+        <v>0.01914960767004715</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>30.740961</v>
       </c>
       <c r="O4">
-        <v>0.2131501649913754</v>
+        <v>0.2144559856000028</v>
       </c>
       <c r="P4">
-        <v>0.2131501649913754</v>
+        <v>0.2144559856000028</v>
       </c>
       <c r="Q4">
-        <v>7.655718680453</v>
+        <v>4.676765854748</v>
       </c>
       <c r="R4">
-        <v>68.901468124077</v>
+        <v>42.090892692732</v>
       </c>
       <c r="S4">
-        <v>0.006601164382227025</v>
+        <v>0.004106747986733336</v>
       </c>
       <c r="T4">
-        <v>0.006601164382227025</v>
+        <v>0.004106747986733336</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>59.23857700000001</v>
       </c>
       <c r="I5">
-        <v>0.8185184181638298</v>
+        <v>0.8285024587002443</v>
       </c>
       <c r="J5">
-        <v>0.8185184181638298</v>
+        <v>0.8285024587002443</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>6.992380999999999</v>
+        <v>6.699658666666667</v>
       </c>
       <c r="N5">
-        <v>20.977143</v>
+        <v>20.098976</v>
       </c>
       <c r="O5">
-        <v>0.1454502834669897</v>
+        <v>0.1402150605386345</v>
       </c>
       <c r="P5">
-        <v>0.1454502834669897</v>
+        <v>0.1402150605386345</v>
       </c>
       <c r="Q5">
-        <v>138.0729000939457</v>
+        <v>132.2927485996836</v>
       </c>
       <c r="R5">
-        <v>1242.656100845511</v>
+        <v>1190.634737397152</v>
       </c>
       <c r="S5">
-        <v>0.119053735944881</v>
+        <v>0.1161685224030623</v>
       </c>
       <c r="T5">
-        <v>0.119053735944881</v>
+        <v>0.1161685224030623</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>59.23857700000001</v>
       </c>
       <c r="I6">
-        <v>0.8185184181638298</v>
+        <v>0.8285024587002443</v>
       </c>
       <c r="J6">
-        <v>0.8185184181638298</v>
+        <v>0.8285024587002443</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>92.50398</v>
       </c>
       <c r="O6">
-        <v>0.641399551541635</v>
+        <v>0.6453289538613627</v>
       </c>
       <c r="P6">
-        <v>0.641399551541635</v>
+        <v>0.6453289538613627</v>
       </c>
       <c r="Q6">
         <v>608.8671268929401</v>
@@ -818,10 +818,10 @@
         <v>5479.804142036461</v>
       </c>
       <c r="S6">
-        <v>0.5249973463388489</v>
+        <v>0.5346566249445955</v>
       </c>
       <c r="T6">
-        <v>0.5249973463388489</v>
+        <v>0.5346566249445955</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>59.23857700000001</v>
       </c>
       <c r="I7">
-        <v>0.8185184181638298</v>
+        <v>0.8285024587002443</v>
       </c>
       <c r="J7">
-        <v>0.8185184181638298</v>
+        <v>0.8285024587002443</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,22 +868,22 @@
         <v>30.740961</v>
       </c>
       <c r="O7">
-        <v>0.2131501649913754</v>
+        <v>0.2144559856000028</v>
       </c>
       <c r="P7">
-        <v>0.2131501649913754</v>
+        <v>0.2144559856000028</v>
       </c>
       <c r="Q7">
-        <v>202.3389761391664</v>
+        <v>202.3389761391663</v>
       </c>
       <c r="R7">
         <v>1821.050785252497</v>
       </c>
       <c r="S7">
-        <v>0.1744673358800999</v>
+        <v>0.1776773113525865</v>
       </c>
       <c r="T7">
-        <v>0.1744673358800999</v>
+        <v>0.1776773113525865</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>10.892997</v>
       </c>
       <c r="I8">
-        <v>0.1505120332904577</v>
+        <v>0.1523479336297086</v>
       </c>
       <c r="J8">
-        <v>0.1505120332904577</v>
+        <v>0.1523479336297086</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>6.992380999999999</v>
+        <v>6.699658666666667</v>
       </c>
       <c r="N8">
-        <v>20.977143</v>
+        <v>20.098976</v>
       </c>
       <c r="O8">
-        <v>0.1454502834669897</v>
+        <v>0.1402150605386345</v>
       </c>
       <c r="P8">
-        <v>0.1454502834669897</v>
+        <v>0.1402150605386345</v>
       </c>
       <c r="Q8">
-        <v>25.389328418619</v>
+        <v>24.32645391900801</v>
       </c>
       <c r="R8">
-        <v>228.503955767571</v>
+        <v>218.938085271072</v>
       </c>
       <c r="S8">
-        <v>0.02189201790729007</v>
+        <v>0.02136147473682547</v>
       </c>
       <c r="T8">
-        <v>0.02189201790729007</v>
+        <v>0.02136147473682547</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>10.892997</v>
       </c>
       <c r="I9">
-        <v>0.1505120332904577</v>
+        <v>0.1523479336297086</v>
       </c>
       <c r="J9">
-        <v>0.1505120332904577</v>
+        <v>0.1523479336297086</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>92.50398</v>
       </c>
       <c r="O9">
-        <v>0.641399551541635</v>
+        <v>0.6453289538613627</v>
       </c>
       <c r="P9">
-        <v>0.641399551541635</v>
+        <v>0.6453289538613627</v>
       </c>
       <c r="Q9">
         <v>111.96061962534</v>
@@ -1004,10 +1004,10 @@
         <v>1007.64557662806</v>
       </c>
       <c r="S9">
-        <v>0.09653835065411923</v>
+        <v>0.09831453263220019</v>
       </c>
       <c r="T9">
-        <v>0.09653835065411923</v>
+        <v>0.09831453263220019</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>10.892997</v>
       </c>
       <c r="I10">
-        <v>0.1505120332904577</v>
+        <v>0.1523479336297086</v>
       </c>
       <c r="J10">
-        <v>0.1505120332904577</v>
+        <v>0.1523479336297086</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>30.740961</v>
       </c>
       <c r="O10">
-        <v>0.2131501649913754</v>
+        <v>0.2144559856000028</v>
       </c>
       <c r="P10">
-        <v>0.2131501649913754</v>
+        <v>0.2144559856000028</v>
       </c>
       <c r="Q10">
-        <v>37.20679955001301</v>
+        <v>37.206799550013</v>
       </c>
       <c r="R10">
-        <v>334.8611959501171</v>
+        <v>334.861195950117</v>
       </c>
       <c r="S10">
-        <v>0.03208166472904845</v>
+        <v>0.03267192626068299</v>
       </c>
       <c r="T10">
-        <v>0.03208166472904845</v>
+        <v>0.03267192626068298</v>
       </c>
     </row>
   </sheetData>
